--- a/Lab4/TestCase_Bai3.xlsx
+++ b/Lab4/TestCase_Bai3.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB6C8B1-5C94-4522-877F-B972324C9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ki2Nam4\Testing\Testing_Lab\Lab4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F11D90-2EE8-4582-A01D-E4AAC9920CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 3" sheetId="4" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>KẾT QUẢ KHI CHẠY TEST EXPLORER</t>
   </si>
@@ -51,12 +54,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Automated</t>
-  </si>
-  <si>
-    <t>Test Ref</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
   </si>
   <si>
     <t>"" (chuỗi rỗng – theo code hiện tại)</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>MSTest</t>
   </si>
   <si>
     <t>Trường hợp biên, vòng while không chạy</t>
@@ -265,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -350,16 +341,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EFAFE3A9-B58A-4944-ABE5-F7575AE6F8B7}" name="Table24" displayName="Table24" ref="A3:H15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:H15" xr:uid="{EFAFE3A9-B58A-4944-ABE5-F7575AE6F8B7}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EFAFE3A9-B58A-4944-ABE5-F7575AE6F8B7}" name="Table24" displayName="Table24" ref="A3:F15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:F15" xr:uid="{EFAFE3A9-B58A-4944-ABE5-F7575AE6F8B7}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{181DFFA5-0B8F-4642-B6CE-ED4AE4B47DCC}" name="TC_ID"/>
     <tableColumn id="2" xr3:uid="{D463AE61-D767-4036-AD9B-2309AE4E092C}" name="Title"/>
     <tableColumn id="3" xr3:uid="{8490201F-5191-4206-9A5B-53BFFAD7FB8F}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00DB5A2F-F178-478C-9C53-6C849F4BB3C8}" name="Test Data (number, radix)"/>
     <tableColumn id="5" xr3:uid="{D0EA4035-5DFC-4704-BA28-AD7CA1741747}" name="Expected Result"/>
-    <tableColumn id="6" xr3:uid="{AAD0A437-E010-4C68-8461-4A5E058A34ED}" name="Automated"/>
-    <tableColumn id="7" xr3:uid="{DFA621C1-82FC-4EDA-8ADE-A46E5983D467}" name="Test Ref"/>
     <tableColumn id="8" xr3:uid="{E696B812-310D-447E-B5F6-7552B7CFD182}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -663,28 +652,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AA2A54-D80B-4B57-B162-2FA7AF44054D}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -703,323 +692,245 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1010</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
       </c>
       <c r="E9">
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D13" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
       <c r="E13">
         <v>10000000000</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
       </c>
       <c r="E14">
         <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
